--- a/BaseB.xlsx
+++ b/BaseB.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,39 +453,39 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45108</v>
       </c>
       <c r="B2" t="n">
-        <v>2.995732273553991</v>
+        <v>1.945910149055313</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45139</v>
       </c>
       <c r="B3" t="n">
-        <v>1.386294361119891</v>
+        <v>1.791759469228055</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45170</v>
       </c>
       <c r="B4" t="n">
-        <v>2.079441541679836</v>
+        <v>1.6094379124341</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45200</v>
       </c>
       <c r="B5" t="n">
-        <v>1.791759469228055</v>
+        <v>2.19722457733622</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45231</v>
       </c>
       <c r="B6" t="n">
         <v>2.19722457733622</v>
@@ -493,57 +493,105 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45261</v>
       </c>
       <c r="B7" t="n">
-        <v>2.70805020110221</v>
+        <v>1.791759469228055</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45292</v>
       </c>
       <c r="B8" t="n">
-        <v>2.70805020110221</v>
+        <v>2.995732273553991</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45323</v>
       </c>
       <c r="B9" t="n">
-        <v>2.079441541679836</v>
+        <v>1.386294361119891</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45536</v>
+        <v>45352</v>
       </c>
       <c r="B10" t="n">
-        <v>2.302585092994046</v>
+        <v>2.079441541679836</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45566</v>
+        <v>45383</v>
       </c>
       <c r="B11" t="n">
-        <v>3.091042453358316</v>
+        <v>1.791759469228055</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45597</v>
+        <v>45413</v>
       </c>
       <c r="B12" t="n">
-        <v>3.367295829986474</v>
+        <v>2.19722457733622</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2.70805020110221</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2.70805020110221</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2.079441541679836</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2.302585092994046</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3.091042453358316</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3.367295829986474</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>45627</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B19" t="n">
         <v>2.484906649788</v>
       </c>
     </row>
